--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -567,7 +567,7 @@
         <rFont val="Calibri Light"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Dr. Soumajit</t>
+      <t xml:space="preserve">Dr. Soumajit Pramanik</t>
     </r>
   </si>
   <si>
@@ -838,6 +838,96 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">DUGC EECS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CS500</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Science of Computing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">B13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://iitbhilai.webex.com/meet/b203</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Dr. Souradyuti Paul</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CS501</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Computer Systems</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">B46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Prof. Santosh Biswas</t>
     </r>
   </si>
   <si>
@@ -975,16 +1065,6 @@
         <rFont val="Calibri Light"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Prof. Santosh Biswas</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">CS552</t>
     </r>
   </si>
@@ -1957,16 +2037,6 @@
         <rFont val="Calibri Light"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Dr. Soumajit Pramanik</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">EE126</t>
     </r>
   </si>
@@ -2426,6 +2496,35 @@
         <rFont val="Calibri Light"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">EE798</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Independent Study: Power System
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Analysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">EE799</t>
     </r>
   </si>
@@ -4055,6 +4154,55 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">ME795</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ME798</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Independent Study: Macromachining</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Independent Study: The Science and
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Technology of Metal Forming</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Dr. Kaushik Bandyopadhyay</t>
     </r>
   </si>
   <si>
@@ -4624,7 +4772,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4650,13 +4798,6 @@
     <font>
       <sz val="7.5"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="7.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -4805,7 +4946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fillId="0" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4864,16 +5005,13 @@
       <alignment horizontal="left" vertical="top" indent="5" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fillId="0" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fillId="0" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4882,7 +5020,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fillId="3" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fillId="3" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
@@ -4897,7 +5035,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fillId="3" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" wrapText="1"/>
@@ -4914,12 +5052,6 @@
     <xf numFmtId="0" fillId="0" borderId="1" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="3" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fillId="3" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4927,93 +5059,96 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fillId="0" borderId="1" fontId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fillId="3" borderId="1" fontId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="3" borderId="1" fontId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fillId="3" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fillId="0" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fillId="4" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="164" fillId="3" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fillId="0" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fillId="0" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fillId="3" borderId="1" fontId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="3" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="3" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fillId="3" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fillId="0" borderId="1" fontId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fillId="0" borderId="2" fontId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="1" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fillId="0" borderId="3" fontId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="0" borderId="4" fontId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="3" borderId="1" fontId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="3" borderId="1" fontId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="3" borderId="1" fontId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="2" fontId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fillId="0" borderId="5" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fillId="0" borderId="7" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fillId="0" borderId="6" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fillId="0" borderId="5" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="3" fontId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="0" borderId="7" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="4" fontId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="0" borderId="6" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="3" borderId="5" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="3" borderId="7" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fillId="3" borderId="6" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="3" borderId="5" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="3" borderId="7" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="3" borderId="6" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="3" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="0" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="5" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="0" borderId="5" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="7" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="0" borderId="7" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="6" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="0" borderId="6" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="1" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="0" borderId="1" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="3" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5028,37 +5163,37 @@
     <xf numFmtId="0" fillId="3" borderId="6" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="3" borderId="1" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="5" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fillId="3" borderId="5" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="7" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fillId="3" borderId="7" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fillId="0" borderId="6" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fillId="3" borderId="6" fontId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="5" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="3" borderId="5" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="7" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="3" borderId="7" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="6" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="3" borderId="6" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="3" borderId="1" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="5" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="3" borderId="5" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="7" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="3" borderId="7" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="0" borderId="6" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fillId="3" borderId="6" fontId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fillId="5" borderId="1" fontId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5358,7 +5493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5434,14 +5569,14 @@
       <c r="C4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="21" t="s">
@@ -5449,31 +5584,31 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -5482,14 +5617,14 @@
       <c r="C6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="21" t="s">
@@ -5497,51 +5632,51 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <v>4</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>4</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="30">
+      <c r="A8" s="29">
         <v>5</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>2</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="21" t="s">
@@ -5549,49 +5684,49 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>4</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="30">
+      <c r="A10" s="19">
         <v>7</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>6</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="22" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="21" t="s">
@@ -5599,31 +5734,31 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>8</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>2</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -5632,14 +5767,14 @@
       <c r="C12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>4</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -5647,31 +5782,31 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A13" s="36">
+      <c r="A13" s="29">
         <v>10</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <v>4</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A14" s="36">
+      <c r="A14" s="29">
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -5680,14 +5815,14 @@
       <c r="C14" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>4</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="23" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="22" t="s">
         <v>55</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -5695,31 +5830,31 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.00" customHeight="1">
-      <c r="A15" s="37">
+      <c r="A15" s="24">
         <v>12</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <v>4</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A16" s="36">
+      <c r="A16" s="19">
         <v>13</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -5728,14 +5863,14 @@
       <c r="C16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <v>4</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="23" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="22" t="s">
         <v>65</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -5743,31 +5878,31 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="37">
+      <c r="A17" s="24">
         <v>14</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>2</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="28" t="s">
+      <c r="F17" s="28"/>
+      <c r="G17" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="36">
+      <c r="A18" s="29">
         <v>15</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -5776,14 +5911,14 @@
       <c r="C18" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="19">
         <v>4</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="23" t="s">
+      <c r="F18" s="23"/>
+      <c r="G18" s="22" t="s">
         <v>39</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -5791,31 +5926,31 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="36">
+      <c r="A19" s="29">
         <v>16</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="36">
+      <c r="A20" s="29">
         <v>17</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -5824,2922 +5959,3042 @@
       <c r="C20" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="19">
+        <v>3</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A21" s="24">
+        <v>18</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="31">
+        <v>3</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A22" s="19">
+        <v>19</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="19">
         <v>6</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="23" t="s">
+      <c r="E22" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A21" s="37">
+      <c r="H22" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A23" s="24">
+        <v>20</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="31">
+        <v>6</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A24" s="29">
+        <v>21</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="19">
+        <v>6</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A25" s="29">
+        <v>22</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="31">
+        <v>6</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A26" s="29">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="19">
+        <v>6</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A27" s="24">
+        <v>24</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A28" s="19">
+        <v>25</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" s="19">
+        <v>6</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A29" s="24">
+        <v>26</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="31">
+        <v>0</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A30" s="29">
+        <v>27</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A31" s="29">
+        <v>28</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="31">
+        <v>2</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A32" s="29">
+        <v>29</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="19">
+        <v>2</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A33" s="24">
+        <v>30</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="31">
+        <v>2</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A34" s="19">
+        <v>31</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="19">
+        <v>4</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A35" s="24">
+        <v>32</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="31">
+        <v>4</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A36" s="29">
+        <v>33</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="19">
+        <v>6</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A37" s="29">
+        <v>34</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="31">
+        <v>6</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A38" s="29">
+        <v>35</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="19">
+        <v>2</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="21.00" customHeight="1">
+      <c r="A39" s="24">
+        <v>36</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="31">
+        <v>4</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A40" s="19">
+        <v>37</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="37">
+        <v>2</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A41" s="24">
+        <v>38</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="38">
+        <v>2</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A42" s="29">
+        <v>39</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="19">
+        <v>4</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="21.00" customHeight="1">
+      <c r="A43" s="29">
+        <v>40</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="31">
+        <v>2</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19.50" customHeight="1">
+      <c r="A44" s="29">
+        <v>41</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="19">
+        <v>2</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A45" s="24">
+        <v>42</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="31">
+        <v>6</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="28"/>
+      <c r="G45" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A46" s="19">
+        <v>43</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="19">
+        <v>6</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A47" s="24">
+        <v>44</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" s="31">
+        <v>2</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F47" s="28"/>
+      <c r="G47" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="21.00" customHeight="1">
+      <c r="A48" s="29">
+        <v>45</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="19">
+        <v>6</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A49" s="29">
+        <v>46</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="31">
+        <v>2</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="28"/>
+      <c r="G49" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A50" s="29">
+        <v>47</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="19">
         <v>18</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="32">
+      <c r="E50" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A51" s="24">
+        <v>48</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="31">
+        <v>0</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="28"/>
+      <c r="G51" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A52" s="19">
+        <v>49</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="19">
+        <v>24</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A53" s="24">
+        <v>50</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="31">
         <v>6</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A22" s="36">
-        <v>19</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="22">
-        <v>6</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A23" s="37">
-        <v>20</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="32">
-        <v>6</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A24" s="36">
-        <v>21</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="22">
-        <v>6</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="23" t="s">
+      <c r="E53" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F53" s="28"/>
+      <c r="G53" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A25" s="36">
-        <v>22</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="28" t="s">
+      <c r="H53" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A54" s="29">
+        <v>51</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="19">
+        <v>1</v>
+      </c>
+      <c r="E54" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="28" t="s">
+      <c r="F54" s="23"/>
+      <c r="G54" s="22" t="s">
         <v>12</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A26" s="36">
-        <v>23</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="22">
-        <v>6</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A27" s="37">
-        <v>24</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="32">
-        <v>0</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A28" s="36">
-        <v>25</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A29" s="37">
-        <v>26</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="32">
-        <v>2</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A30" s="36">
-        <v>27</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="22">
-        <v>2</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A31" s="36">
-        <v>28</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="32">
-        <v>2</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A32" s="36">
-        <v>29</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="22">
-        <v>4</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A33" s="37">
-        <v>30</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="32">
-        <v>4</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A34" s="36">
-        <v>31</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="22">
-        <v>6</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A35" s="37">
-        <v>32</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="D35" s="32">
-        <v>6</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A36" s="36">
-        <v>33</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="22">
-        <v>2</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="21.00" customHeight="1">
-      <c r="A37" s="36">
-        <v>34</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D37" s="32">
-        <v>4</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A38" s="40">
-        <v>35</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="41">
-        <v>2</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="H38" s="39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A39" s="42">
-        <v>36</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="43">
-        <v>2</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A40" s="36">
-        <v>37</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="22">
-        <v>4</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="21.00" customHeight="1">
-      <c r="A41" s="37">
-        <v>38</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="32">
-        <v>2</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="19.50" customHeight="1">
-      <c r="A42" s="44">
-        <v>39</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="22">
-        <v>2</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A43" s="44">
-        <v>40</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="D43" s="32">
-        <v>6</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A44" s="44">
-        <v>41</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="22">
-        <v>6</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A45" s="45">
-        <v>42</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="32">
-        <v>2</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="21.00" customHeight="1">
-      <c r="A46" s="44">
-        <v>43</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" s="22">
-        <v>6</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A47" s="45">
-        <v>44</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="32">
-        <v>2</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A48" s="44">
-        <v>45</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D48" s="22">
-        <v>18</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A49" s="44">
-        <v>46</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="32">
-        <v>0</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A50" s="44">
-        <v>47</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D50" s="22">
-        <v>24</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A51" s="45">
-        <v>48</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="D51" s="32">
-        <v>6</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A52" s="44">
-        <v>49</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D52" s="22">
-        <v>1</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A53" s="45">
-        <v>50</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" s="32">
-        <v>6</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A54" s="44">
-        <v>51</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D54" s="22">
-        <v>6</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="23" t="s">
-        <v>158</v>
       </c>
       <c r="H54" s="21" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A55" s="44">
+      <c r="A55" s="29">
         <v>52</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="32">
+      <c r="D55" s="31">
+        <v>6</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" s="28"/>
+      <c r="G55" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A56" s="29">
+        <v>53</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="19">
+        <v>6</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F56" s="23"/>
+      <c r="G56" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A57" s="24">
+        <v>54</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="31">
         <v>4</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E57" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F57" s="28"/>
+      <c r="G57" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A58" s="19">
+        <v>55</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="19">
+        <v>1</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" s="23"/>
+      <c r="G58" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A59" s="24">
+        <v>56</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="31">
+        <v>2</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" s="28"/>
+      <c r="G59" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A60" s="29">
+        <v>57</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="19">
+        <v>1</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A61" s="29">
+        <v>58</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" s="31">
+        <v>1</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="28"/>
+      <c r="G61" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A62" s="29">
+        <v>59</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="19">
+        <v>2</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="28" t="s">
+    </row>
+    <row r="63" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A63" s="24">
+        <v>60</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="31">
+        <v>2</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F63" s="28"/>
+      <c r="G63" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A64" s="19">
+        <v>61</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" s="19">
+        <v>2</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A65" s="24">
+        <v>62</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="28"/>
+      <c r="G65" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A66" s="29">
+        <v>63</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" s="19">
+        <v>6</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A56" s="44">
-        <v>53</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D56" s="22">
+      <c r="H66" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A67" s="29">
+        <v>64</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="28"/>
+      <c r="G67" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="21.00" customHeight="1">
+      <c r="A68" s="29">
+        <v>65</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D68" s="19">
+        <v>6</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="23"/>
+      <c r="G68" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H68" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A69" s="24">
+        <v>66</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D69" s="31">
+        <v>6</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="28"/>
+      <c r="G69" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H69" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A70" s="19">
+        <v>67</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="19">
+        <v>6</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="23"/>
+      <c r="G70" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H70" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A71" s="24">
+        <v>68</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="31">
+        <v>0</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="28"/>
+      <c r="G71" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A72" s="19">
+        <v>69</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="D72" s="19">
+        <v>6</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="23"/>
+      <c r="G72" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A73" s="24">
+        <v>70</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="28"/>
+      <c r="G73" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A74" s="29">
+        <v>71</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D74" s="19">
         <v>1</v>
       </c>
-      <c r="E56" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A57" s="45">
-        <v>54</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D57" s="32">
+      <c r="E74" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="F74" s="23"/>
+      <c r="G74" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A75" s="29">
+        <v>72</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="31">
         <v>2</v>
       </c>
-      <c r="E57" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A58" s="44">
-        <v>55</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="22">
+      <c r="E75" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F75" s="28"/>
+      <c r="G75" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A76" s="29">
+        <v>73</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="19">
+        <v>2</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="F76" s="23"/>
+      <c r="G76" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H76" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A77" s="24">
+        <v>74</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" s="31">
+        <v>2</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F77" s="28"/>
+      <c r="G77" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="H77" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A78" s="19">
+        <v>75</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" s="19">
         <v>1</v>
       </c>
-      <c r="E58" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A59" s="45">
-        <v>56</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="D59" s="32">
-        <v>1</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A60" s="44">
-        <v>57</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D60" s="22">
+      <c r="E78" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F78" s="23"/>
+      <c r="G78" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H78" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A79" s="24">
+        <v>76</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="31">
         <v>2</v>
       </c>
-      <c r="E60" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A61" s="44">
-        <v>58</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="D61" s="32">
-        <v>2</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A62" s="44">
-        <v>59</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D62" s="22">
-        <v>2</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="24"/>
-      <c r="G62" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A63" s="45">
-        <v>60</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D63" s="28" t="s">
+      <c r="E79" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="F79" s="28"/>
+      <c r="G79" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A80" s="29">
         <v>77</v>
       </c>
-      <c r="E63" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A64" s="44">
-        <v>61</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="D64" s="22">
-        <v>6</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A65" s="45">
-        <v>62</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="21.00" customHeight="1">
-      <c r="A66" s="44">
-        <v>63</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D66" s="22">
-        <v>6</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F66" s="24"/>
-      <c r="G66" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A67" s="44">
-        <v>64</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="D67" s="32">
-        <v>6</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A68" s="44">
-        <v>65</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C68" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D68" s="22">
-        <v>6</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F68" s="24"/>
-      <c r="G68" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="H68" s="21" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A69" s="45">
-        <v>66</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" s="32">
-        <v>0</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A70" s="44">
-        <v>67</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="24"/>
-      <c r="G70" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A71" s="45">
-        <v>68</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="D71" s="32">
-        <v>1</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="F71" s="29"/>
-      <c r="G71" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A72" s="44">
-        <v>69</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D72" s="22">
-        <v>2</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="F72" s="24"/>
-      <c r="G72" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A73" s="44">
-        <v>70</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="D73" s="32">
-        <v>2</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="F73" s="29"/>
-      <c r="G73" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A74" s="44">
-        <v>71</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="D74" s="22">
-        <v>2</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="F74" s="24"/>
-      <c r="G74" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H74" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A75" s="45">
-        <v>72</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="D75" s="32">
-        <v>1</v>
-      </c>
-      <c r="E75" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A76" s="44">
-        <v>73</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="C76" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="D76" s="22">
-        <v>2</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="F76" s="24"/>
-      <c r="G76" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H76" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A77" s="45">
-        <v>74</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D77" s="32">
-        <v>2</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A78" s="44">
-        <v>75</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D78" s="22">
-        <v>2</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="F78" s="24"/>
-      <c r="G78" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H78" s="21" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A79" s="44">
-        <v>76</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="D79" s="32">
-        <v>2</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="F79" s="29"/>
-      <c r="G79" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A80" s="44">
-        <v>77</v>
-      </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="22" t="s">
         <v>254</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D80" s="19">
+        <v>2</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F80" s="23"/>
+      <c r="G80" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A81" s="29">
+        <v>78</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="31">
+        <v>2</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="F81" s="28"/>
+      <c r="G81" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A82" s="29">
+        <v>79</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" s="19">
+        <v>2</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F82" s="23"/>
+      <c r="G82" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A83" s="39">
+        <v>80</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D83" s="31">
         <v>1</v>
       </c>
-      <c r="E80" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="F80" s="24"/>
-      <c r="G80" s="23" t="s">
+      <c r="E83" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="F83" s="28"/>
+      <c r="G83" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H80" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A81" s="45">
-        <v>78</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="D81" s="32">
+      <c r="H83" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A84" s="40">
+        <v>81</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D84" s="19">
         <v>1</v>
       </c>
-      <c r="E81" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="F81" s="29"/>
-      <c r="G81" s="28" t="s">
+      <c r="E84" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="F84" s="23"/>
+      <c r="G84" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H81" s="27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A82" s="44">
-        <v>79</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="C82" s="21" t="s">
+      <c r="H84" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A85" s="39">
+        <v>82</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85" s="31">
+        <v>2</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="F85" s="28"/>
+      <c r="G85" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A86" s="41">
+        <v>83</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" s="19">
+        <v>2</v>
+      </c>
+      <c r="E86" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="D82" s="22">
+      <c r="F86" s="23"/>
+      <c r="G86" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A87" s="41">
+        <v>84</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D87" s="31">
         <v>2</v>
       </c>
-      <c r="E82" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="F82" s="24"/>
-      <c r="G82" s="23" t="s">
+      <c r="E87" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="F87" s="28"/>
+      <c r="G87" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H82" s="21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A83" s="45">
-        <v>80</v>
-      </c>
-      <c r="B83" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="C83" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="D83" s="32">
-        <v>2</v>
-      </c>
-      <c r="E83" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H83" s="27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A84" s="44">
-        <v>81</v>
-      </c>
-      <c r="B84" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D84" s="22">
-        <v>2</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="F84" s="24"/>
-      <c r="G84" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H84" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A85" s="44">
-        <v>82</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="D85" s="32">
-        <v>4</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="F85" s="29"/>
-      <c r="G85" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="H85" s="27" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A86" s="44">
-        <v>83</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="C86" s="21" t="s">
+      <c r="H87" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="D86" s="22">
-        <v>2</v>
-      </c>
-      <c r="E86" s="22">
-        <v>12</v>
-      </c>
-      <c r="F86" s="24"/>
-      <c r="G86" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H86" s="21" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="21.00" customHeight="1">
-      <c r="A87" s="45">
-        <v>84</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="D87" s="32">
-        <v>2</v>
-      </c>
-      <c r="E87" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="F87" s="29"/>
-      <c r="G87" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H87" s="27" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="88" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A88" s="44">
+      <c r="A88" s="41">
         <v>85</v>
       </c>
-      <c r="B88" s="23" t="s">
+      <c r="B88" s="22" t="s">
         <v>277</v>
       </c>
       <c r="C88" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="D88" s="22">
-        <v>1</v>
-      </c>
-      <c r="E88" s="23" t="s">
+      <c r="D88" s="19">
+        <v>4</v>
+      </c>
+      <c r="E88" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="F88" s="24"/>
-      <c r="G88" s="23" t="s">
-        <v>39</v>
+      <c r="F88" s="23"/>
+      <c r="G88" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="H88" s="21" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A89" s="45">
+      <c r="A89" s="39">
         <v>86</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D89" s="31">
+        <v>2</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F89" s="28"/>
+      <c r="G89" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H89" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="C89" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D89" s="32">
-        <v>1</v>
-      </c>
-      <c r="E89" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="F89" s="29"/>
-      <c r="G89" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H89" s="27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A90" s="44">
+    </row>
+    <row r="90" spans="1:8" ht="21.00" customHeight="1">
+      <c r="A90" s="40">
         <v>87</v>
       </c>
-      <c r="B90" s="23" t="s">
+      <c r="B90" s="22" t="s">
         <v>283</v>
       </c>
       <c r="C90" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D90" s="22">
+      <c r="D90" s="19">
+        <v>2</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="F90" s="23"/>
+      <c r="G90" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H90" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A91" s="39">
+        <v>88</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" s="31">
         <v>1</v>
       </c>
-      <c r="E90" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="F90" s="24"/>
-      <c r="G90" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="H90" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A91" s="44">
-        <v>88</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" s="32">
-        <v>2</v>
-      </c>
-      <c r="E91" s="28" t="s">
-        <v>267</v>
-      </c>
-      <c r="F91" s="29"/>
-      <c r="G91" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H91" s="27" t="s">
+      <c r="E91" s="27" t="s">
         <v>288</v>
       </c>
+      <c r="F91" s="28"/>
+      <c r="G91" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H91" s="26" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="92" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A92" s="44">
+      <c r="A92" s="41">
         <v>89</v>
       </c>
-      <c r="B92" s="23" t="s">
+      <c r="B92" s="22" t="s">
         <v>289</v>
       </c>
       <c r="C92" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D92" s="19">
+        <v>1</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="F92" s="23"/>
+      <c r="G92" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H92" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A93" s="41">
+        <v>90</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D93" s="31">
+        <v>1</v>
+      </c>
+      <c r="E93" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="F93" s="28"/>
+      <c r="G93" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H93" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A94" s="41">
+        <v>91</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="D94" s="19">
         <v>2</v>
       </c>
-      <c r="E92" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="F92" s="24"/>
-      <c r="G92" s="23" t="s">
+      <c r="E94" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F94" s="23"/>
+      <c r="G94" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H92" s="21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A93" s="45">
-        <v>90</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D93" s="32">
+      <c r="H94" s="21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A95" s="39">
+        <v>92</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D95" s="31">
+        <v>2</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F95" s="28"/>
+      <c r="G95" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H95" s="26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A96" s="40">
+        <v>93</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" s="19">
         <v>0</v>
       </c>
-      <c r="E93" s="28" t="s">
+      <c r="E96" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="29"/>
-      <c r="G93" s="28" t="s">
+      <c r="F96" s="23"/>
+      <c r="G96" s="22" t="s">
         <v>12</v>
-      </c>
-      <c r="H93" s="27" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A94" s="44">
-        <v>91</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D94" s="22">
-        <v>24</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="24"/>
-      <c r="G94" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="21" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A95" s="45">
-        <v>92</v>
-      </c>
-      <c r="B95" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="D95" s="32">
-        <v>6</v>
-      </c>
-      <c r="E95" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="29"/>
-      <c r="G95" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="H95" s="27" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A96" s="44">
-        <v>93</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="D96" s="22">
-        <v>4</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="F96" s="24"/>
-      <c r="G96" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="H96" s="21" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A97" s="44">
+      <c r="A97" s="39">
         <v>94</v>
       </c>
-      <c r="B97" s="28" t="s">
+      <c r="B97" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="31">
+        <v>24</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="28"/>
+      <c r="G97" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="26" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A98" s="41">
+        <v>95</v>
+      </c>
+      <c r="B98" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="D97" s="32">
+      <c r="C98" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="D98" s="19">
         <v>6</v>
       </c>
-      <c r="E97" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F97" s="29"/>
-      <c r="G97" s="28" t="s">
+      <c r="E98" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="23"/>
+      <c r="G98" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A99" s="41">
+        <v>96</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D99" s="31">
+        <v>4</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="F99" s="28"/>
+      <c r="G99" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H99" s="26" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A100" s="41">
+        <v>97</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D100" s="19">
+        <v>6</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" s="23"/>
+      <c r="G100" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H97" s="27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A98" s="44">
-        <v>95</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="D98" s="22">
+      <c r="H100" s="21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A101" s="39">
+        <v>98</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="D101" s="31">
         <v>6</v>
       </c>
-      <c r="E98" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F98" s="24"/>
-      <c r="G98" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="H98" s="21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A99" s="45">
-        <v>96</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="C99" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="D99" s="32">
+      <c r="E101" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F101" s="28"/>
+      <c r="G101" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H101" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A102" s="40">
+        <v>99</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" s="19">
         <v>6</v>
       </c>
-      <c r="E99" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F99" s="29"/>
-      <c r="G99" s="28" t="s">
+      <c r="E102" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F102" s="23"/>
+      <c r="G102" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H99" s="27" t="s">
+      <c r="H102" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A100" s="44">
-        <v>97</v>
-      </c>
-      <c r="B100" s="23" t="s">
+    <row r="103" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A103" s="39">
+        <v>100</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D103" s="31">
+        <v>6</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F103" s="28"/>
+      <c r="G103" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H103" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A104" s="41">
+        <v>101</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D104" s="19">
+        <v>6</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F104" s="23"/>
+      <c r="G104" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H104" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A105" s="41">
+        <v>102</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="D105" s="31">
+        <v>6</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F105" s="28"/>
+      <c r="G105" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H105" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="21.00" customHeight="1">
+      <c r="A106" s="41">
+        <v>103</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D106" s="19">
+        <v>6</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="F106" s="23"/>
+      <c r="G106" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H106" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="C100" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D100" s="22">
-        <v>6</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F100" s="24"/>
-      <c r="G100" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="H100" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A101" s="45">
-        <v>98</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="D101" s="32">
-        <v>6</v>
-      </c>
-      <c r="E101" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="F101" s="29"/>
-      <c r="G101" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H101" s="27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A102" s="44">
-        <v>99</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="D102" s="22">
-        <v>6</v>
-      </c>
-      <c r="E102" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F102" s="24"/>
-      <c r="G102" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H102" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="21.00" customHeight="1">
-      <c r="A103" s="44">
-        <v>100</v>
-      </c>
-      <c r="B103" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>318</v>
-      </c>
-      <c r="D103" s="32">
-        <v>6</v>
-      </c>
-      <c r="E103" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="F103" s="29"/>
-      <c r="G103" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="H103" s="27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A104" s="44">
-        <v>101</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D104" s="22">
+    </row>
+    <row r="107" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A107" s="39">
+        <v>104</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D107" s="31">
         <v>18</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E107" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="24"/>
-      <c r="G104" s="23" t="s">
+      <c r="F107" s="28"/>
+      <c r="G107" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H104" s="21" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A105" s="45">
-        <v>102</v>
-      </c>
-      <c r="B105" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D105" s="32">
+      <c r="H107" s="26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A108" s="40">
+        <v>105</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D108" s="19">
         <v>0</v>
       </c>
-      <c r="E105" s="28" t="s">
+      <c r="E108" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="29"/>
-      <c r="G105" s="28" t="s">
+      <c r="F108" s="23"/>
+      <c r="G108" s="22" t="s">
         <v>12</v>
-      </c>
-      <c r="H105" s="27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A106" s="44">
-        <v>103</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="24"/>
-      <c r="G106" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" s="21" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A107" s="45">
-        <v>104</v>
-      </c>
-      <c r="B107" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="C107" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="D107" s="32">
-        <v>6</v>
-      </c>
-      <c r="E107" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F107" s="29"/>
-      <c r="G107" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="H107" s="27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A108" s="44">
-        <v>105</v>
-      </c>
-      <c r="B108" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="D108" s="22">
-        <v>6</v>
-      </c>
-      <c r="E108" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="F108" s="24"/>
-      <c r="G108" s="23" t="s">
-        <v>158</v>
       </c>
       <c r="H108" s="21" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A109" s="44">
+      <c r="A109" s="39">
         <v>106</v>
       </c>
-      <c r="B109" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="C109" s="27" t="s">
+      <c r="B109" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="D109" s="32">
+      <c r="C109" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="28"/>
+      <c r="G109" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A110" s="41">
+        <v>107</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D110" s="19">
         <v>6</v>
       </c>
-      <c r="E109" s="28" t="s">
+      <c r="E110" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F110" s="23"/>
+      <c r="G110" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H110" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A111" s="41">
+        <v>108</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C111" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D111" s="31">
+        <v>6</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="F111" s="28"/>
+      <c r="G111" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H111" s="26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A112" s="41">
+        <v>109</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D112" s="19">
+        <v>6</v>
+      </c>
+      <c r="E112" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F109" s="29"/>
-      <c r="G109" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="H109" s="27" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A110" s="44">
-        <v>107</v>
-      </c>
-      <c r="B110" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="C110" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="D110" s="22">
+      <c r="F112" s="23"/>
+      <c r="G112" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H112" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A113" s="39">
+        <v>110</v>
+      </c>
+      <c r="B113" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="C113" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D113" s="31">
         <v>4</v>
       </c>
-      <c r="E110" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="F110" s="24"/>
-      <c r="G110" s="23" t="s">
+      <c r="E113" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="F113" s="28"/>
+      <c r="G113" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H110" s="21" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A111" s="45">
-        <v>108</v>
-      </c>
-      <c r="B111" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="D111" s="32">
+      <c r="H113" s="26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A114" s="40">
+        <v>111</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D114" s="19">
         <v>6</v>
       </c>
-      <c r="E111" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="F111" s="29"/>
-      <c r="G111" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="H111" s="27" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A112" s="47">
-        <v>109</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="D112" s="41">
+      <c r="E114" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F114" s="23"/>
+      <c r="G114" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H114" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A115" s="39">
+        <v>112</v>
+      </c>
+      <c r="B115" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="D115" s="38">
         <v>3</v>
       </c>
-      <c r="E112" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="F112" s="24"/>
-      <c r="G112" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="H112" s="39" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A113" s="45">
-        <v>110</v>
-      </c>
-      <c r="B113" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="D113" s="32">
-        <v>3</v>
-      </c>
-      <c r="E113" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="F113" s="29"/>
-      <c r="G113" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="38" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A114" s="44">
-        <v>111</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="D114" s="22">
-        <v>6</v>
-      </c>
-      <c r="E114" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F114" s="24"/>
-      <c r="G114" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="H114" s="39" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A115" s="44">
-        <v>112</v>
-      </c>
-      <c r="B115" s="28" t="s">
+      <c r="E115" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="C115" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="D115" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E115" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="29"/>
-      <c r="G115" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="27" t="s">
+      <c r="F115" s="28"/>
+      <c r="G115" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H115" s="35" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A116" s="44">
+      <c r="A116" s="41">
         <v>113</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="B116" s="22" t="s">
         <v>354</v>
       </c>
       <c r="C116" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="D116" s="22">
+      <c r="D116" s="19">
+        <v>3</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="F116" s="23"/>
+      <c r="G116" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="36" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A117" s="41">
+        <v>114</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D117" s="31">
         <v>6</v>
       </c>
-      <c r="E116" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F116" s="24"/>
-      <c r="G116" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H116" s="39" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A117" s="45">
-        <v>114</v>
-      </c>
-      <c r="B117" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="C117" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="D117" s="32">
+      <c r="E117" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F117" s="28"/>
+      <c r="G117" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="H117" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A118" s="41">
+        <v>115</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="23"/>
+      <c r="G118" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="21" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A119" s="39">
+        <v>116</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="C119" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D119" s="31">
         <v>6</v>
       </c>
-      <c r="E117" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="F117" s="29"/>
-      <c r="G117" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H117" s="27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A118" s="44">
-        <v>115</v>
-      </c>
-      <c r="B118" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C118" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="D118" s="22">
+      <c r="E119" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F119" s="28"/>
+      <c r="G119" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H119" s="35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A120" s="40">
+        <v>117</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="D120" s="19">
+        <v>6</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="F120" s="23"/>
+      <c r="G120" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H120" s="21" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A121" s="39">
+        <v>118</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="D121" s="31">
         <v>4</v>
       </c>
-      <c r="E118" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F118" s="24"/>
-      <c r="G118" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="H118" s="21" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A119" s="45">
-        <v>116</v>
-      </c>
-      <c r="B119" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="D119" s="32">
+      <c r="E121" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F121" s="28"/>
+      <c r="G121" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H121" s="26" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A122" s="41">
+        <v>119</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D122" s="19">
         <v>6</v>
       </c>
-      <c r="E119" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F119" s="29"/>
-      <c r="G119" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="H119" s="38" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A120" s="44">
-        <v>117</v>
-      </c>
-      <c r="B120" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D120" s="23" t="s">
+      <c r="E122" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F122" s="23"/>
+      <c r="G122" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H122" s="36" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A123" s="41">
+        <v>120</v>
+      </c>
+      <c r="B123" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D123" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E120" s="23" t="s">
+      <c r="E123" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="24"/>
-      <c r="G120" s="23" t="s">
+      <c r="F123" s="28"/>
+      <c r="G123" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H120" s="21" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A121" s="44">
-        <v>118</v>
-      </c>
-      <c r="B121" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="D121" s="32">
+      <c r="H123" s="26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A124" s="41">
+        <v>121</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="D124" s="19">
         <v>6</v>
       </c>
-      <c r="E121" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F121" s="29"/>
-      <c r="G121" s="28" t="s">
+      <c r="E124" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="F124" s="23"/>
+      <c r="G124" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H121" s="27" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A122" s="44">
-        <v>119</v>
-      </c>
-      <c r="B122" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="D122" s="22">
+      <c r="H124" s="21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A125" s="43">
+        <v>122</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D125" s="31">
         <v>6</v>
       </c>
-      <c r="E122" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F122" s="24"/>
-      <c r="G122" s="23" t="s">
+      <c r="E125" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F125" s="28"/>
+      <c r="G125" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="H122" s="21" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A123" s="45">
-        <v>120</v>
-      </c>
-      <c r="B123" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>374</v>
-      </c>
-      <c r="D123" s="32">
-        <v>6</v>
-      </c>
-      <c r="E123" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="F123" s="29"/>
-      <c r="G123" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H123" s="27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A124" s="44">
-        <v>121</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="D124" s="22">
-        <v>6</v>
-      </c>
-      <c r="E124" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F124" s="24"/>
-      <c r="G124" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="H124" s="21" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="25.50" customHeight="1">
-      <c r="A125" s="45">
-        <v>122</v>
-      </c>
-      <c r="B125" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="C125" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="D125" s="32">
-        <v>6</v>
-      </c>
-      <c r="E125" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F125" s="29"/>
-      <c r="G125" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="H125" s="27" t="s">
-        <v>337</v>
+      <c r="H125" s="26" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="12.75" customHeight="1">
       <c r="A126" s="44">
         <v>123</v>
       </c>
-      <c r="B126" s="23" t="s">
-        <v>380</v>
+      <c r="B126" s="22" t="s">
+        <v>382</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D126" s="22">
-        <v>0</v>
-      </c>
-      <c r="E126" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="D126" s="19">
+        <v>6</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="F126" s="23"/>
+      <c r="G126" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H126" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A127" s="43">
+        <v>124</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D127" s="31">
+        <v>6</v>
+      </c>
+      <c r="E127" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F127" s="28"/>
+      <c r="G127" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H127" s="26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A128" s="45">
+        <v>125</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C128" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="D128" s="19">
+        <v>6</v>
+      </c>
+      <c r="E128" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="24"/>
-      <c r="G126" s="23" t="s">
+      <c r="F128" s="23"/>
+      <c r="G128" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H126" s="21" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A127" s="44">
-        <v>124</v>
-      </c>
-      <c r="B127" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="D127" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E127" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="29"/>
-      <c r="G127" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" s="27" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A128" s="44">
-        <v>125</v>
-      </c>
-      <c r="B128" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="D128" s="22">
-        <v>2</v>
-      </c>
-      <c r="E128" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="F128" s="24"/>
-      <c r="G128" s="23" t="s">
-        <v>129</v>
-      </c>
       <c r="H128" s="21" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="12.75" customHeight="1">
       <c r="A129" s="45">
         <v>126</v>
       </c>
-      <c r="B129" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="D129" s="32">
+      <c r="B129" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D129" s="31">
+        <v>0</v>
+      </c>
+      <c r="E129" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="28"/>
+      <c r="G129" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="21.00" customHeight="1">
+      <c r="A130" s="45">
+        <v>127</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D130" s="19">
         <v>6</v>
       </c>
-      <c r="E129" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F129" s="29"/>
-      <c r="G129" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="H129" s="27" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A130" s="44">
-        <v>127</v>
-      </c>
-      <c r="B130" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="C130" s="21" t="s">
+      <c r="E130" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="23"/>
+      <c r="G130" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A131" s="43">
+        <v>128</v>
+      </c>
+      <c r="B131" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="D130" s="22">
+      <c r="C131" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D131" s="31">
         <v>6</v>
       </c>
-      <c r="E130" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F130" s="24"/>
-      <c r="G130" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="H130" s="21" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A131" s="45">
-        <v>128</v>
-      </c>
-      <c r="B131" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="C131" s="27" t="s">
+      <c r="E131" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="28"/>
+      <c r="G131" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="D131" s="32">
-        <v>6</v>
-      </c>
-      <c r="E131" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F131" s="29"/>
-      <c r="G131" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H131" s="27" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="12.75" customHeight="1">
       <c r="A132" s="44">
         <v>129</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B132" s="22" t="s">
         <v>394</v>
       </c>
       <c r="C132" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="23"/>
+      <c r="G132" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A133" s="43">
+        <v>130</v>
+      </c>
+      <c r="B133" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="D132" s="22">
+      <c r="C133" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="D133" s="31">
+        <v>2</v>
+      </c>
+      <c r="E133" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="F133" s="28"/>
+      <c r="G133" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H133" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A134" s="45">
+        <v>131</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="D134" s="19">
         <v>6</v>
       </c>
-      <c r="E132" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F132" s="24"/>
-      <c r="G132" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="H132" s="21" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A133" s="44">
-        <v>130</v>
-      </c>
-      <c r="B133" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="D133" s="32">
-        <v>6</v>
-      </c>
-      <c r="E133" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="F133" s="29"/>
-      <c r="G133" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" s="27" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="31.75" customHeight="1">
-      <c r="A134" s="48">
-        <v>131</v>
-      </c>
-      <c r="B134" s="49" t="s">
-        <v>400</v>
-      </c>
-      <c r="C134" s="50" t="s">
+      <c r="E134" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F134" s="23"/>
+      <c r="G134" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H134" s="21" t="s">
         <v>401</v>
-      </c>
-      <c r="D134" s="51">
-        <v>6</v>
-      </c>
-      <c r="E134" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="F134" s="24"/>
-      <c r="G134" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H134" s="39" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="12.75" customHeight="1">
       <c r="A135" s="45">
         <v>132</v>
       </c>
-      <c r="B135" s="28" t="s">
+      <c r="B135" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="C135" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="C135" s="27" t="s">
+      <c r="D135" s="31">
+        <v>6</v>
+      </c>
+      <c r="E135" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F135" s="28"/>
+      <c r="G135" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H135" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="D135" s="32">
+    </row>
+    <row r="136" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A136" s="45">
+        <v>133</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D136" s="19">
         <v>6</v>
       </c>
-      <c r="E135" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F135" s="29"/>
-      <c r="G135" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H135" s="27" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A136" s="44">
-        <v>133</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="C136" s="21" t="s">
+      <c r="E136" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" s="23"/>
+      <c r="G136" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H136" s="21" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A137" s="43">
+        <v>134</v>
+      </c>
+      <c r="B137" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="D136" s="22">
+      <c r="C137" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="D137" s="31">
         <v>6</v>
       </c>
-      <c r="E136" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="F136" s="24"/>
-      <c r="G136" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H136" s="21" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A137" s="45">
-        <v>134</v>
-      </c>
-      <c r="B137" s="28" t="s">
-        <v>408</v>
-      </c>
-      <c r="C137" s="27" t="s">
+      <c r="E137" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F137" s="28"/>
+      <c r="G137" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="H137" s="26" t="s">
         <v>409</v>
-      </c>
-      <c r="D137" s="32">
-        <v>6</v>
-      </c>
-      <c r="E137" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="F137" s="29"/>
-      <c r="G137" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="H137" s="27" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="12.75" customHeight="1">
       <c r="A138" s="44">
         <v>135</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="22" t="s">
         <v>410</v>
       </c>
       <c r="C138" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="D138" s="22">
-        <v>18</v>
-      </c>
-      <c r="E138" s="23" t="s">
+      <c r="D138" s="19">
+        <v>6</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="F138" s="23"/>
+      <c r="G138" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F138" s="24"/>
-      <c r="G138" s="23" t="s">
-        <v>12</v>
-      </c>
       <c r="H138" s="21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A139" s="44">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="31.75" customHeight="1">
+      <c r="A139" s="46">
         <v>136</v>
       </c>
-      <c r="B139" s="28" t="s">
+      <c r="B139" s="47" t="s">
         <v>413</v>
       </c>
-      <c r="C139" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D139" s="32">
-        <v>0</v>
-      </c>
-      <c r="E139" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F139" s="29"/>
-      <c r="G139" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H139" s="27" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="25.50" customHeight="1">
+      <c r="C139" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="D139" s="49">
+        <v>6</v>
+      </c>
+      <c r="E139" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="F139" s="28"/>
+      <c r="G139" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="H139" s="35" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="12.75" customHeight="1">
       <c r="A140" s="44">
         <v>137</v>
       </c>
-      <c r="B140" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="C140" s="39" t="s">
-        <v>415</v>
-      </c>
-      <c r="D140" s="22">
+      <c r="B140" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D140" s="19">
         <v>6</v>
       </c>
-      <c r="E140" s="23" t="s">
+      <c r="E140" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F140" s="23"/>
+      <c r="G140" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H140" s="21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A141" s="43">
+        <v>138</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="D141" s="31">
+        <v>6</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="F141" s="28"/>
+      <c r="G141" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H141" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A142" s="45">
+        <v>139</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="D142" s="19">
+        <v>6</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F142" s="23"/>
+      <c r="G142" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H142" s="21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A143" s="45">
+        <v>140</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="D143" s="31">
+        <v>18</v>
+      </c>
+      <c r="E143" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F140" s="24"/>
-      <c r="G140" s="23" t="s">
+      <c r="F143" s="28"/>
+      <c r="G143" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H140" s="21" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A141" s="45">
-        <v>138</v>
-      </c>
-      <c r="B141" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="C141" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="D141" s="28" t="s">
+      <c r="H143" s="26" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A144" s="45">
+        <v>141</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D144" s="19">
+        <v>0</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" s="23"/>
+      <c r="G144" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" s="21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="25.50" customHeight="1">
+      <c r="A145" s="43">
+        <v>142</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="C145" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="D145" s="31">
+        <v>6</v>
+      </c>
+      <c r="E145" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="28"/>
+      <c r="G145" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A146" s="44">
+        <v>143</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="D146" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E141" s="28" t="s">
+      <c r="E146" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F141" s="29"/>
-      <c r="G141" s="28" t="s">
+      <c r="F146" s="23"/>
+      <c r="G146" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H141" s="27" t="s">
-        <v>412</v>
+      <c r="H146" s="21" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -8774,120 +9029,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A1" s="53" t="s">
-        <v>418</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
+      <c r="A1" s="51" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6" ht="17.00" customHeight="1">
-      <c r="A2" s="56" t="s">
-        <v>419</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>421</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>422</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>423</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>424</v>
+      <c r="A2" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>436</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.00" customHeight="1">
-      <c r="A3" s="59">
+      <c r="A3" s="57">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="69" t="s">
-        <v>425</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>427</v>
+      <c r="D3" s="67" t="s">
+        <v>438</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.50" customHeight="1">
-      <c r="A4" s="60"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="74" t="s">
-        <v>428</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="F4" s="72"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="72" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="1:6" ht="13.50" customHeight="1">
-      <c r="A5" s="61"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="33" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="F5" s="72"/>
+      <c r="E5" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="F5" s="70"/>
     </row>
     <row r="6" spans="1:6" ht="11.00" customHeight="1">
-      <c r="A6" s="75">
+      <c r="A6" s="73">
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="85" t="s">
-        <v>431</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="F6" s="72"/>
+      <c r="D6" s="83" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="F6" s="70"/>
     </row>
     <row r="7" spans="1:6" ht="11.00" customHeight="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="33" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="F7" s="72"/>
+      <c r="E7" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="1:6" ht="11.00" customHeight="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="35" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="F8" s="73"/>
+      <c r="E8" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="8">
